--- a/biology/Mycologie/Tramète/Tramète.xlsx
+++ b/biology/Mycologie/Tramète/Tramète.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tram%C3%A8te</t>
+          <t>Tramète</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tramète est un nom vernaculaire ambigu désignant en français plusieurs champignons de l'ordre des Polyporales. Ce sont des polypores généralement peu épais, lignicoles et annuels.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tram%C3%A8te</t>
+          <t>Tramète</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,42 +523,44 @@
           <t>Liste alphabétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Tramète à ligne noire – Cerrena unicolor[1]
-Tramète à odeur d'abricot – Datronia mollis[1]
-Tramète bicolore – Gloeoporus dichrous[1]
-Tramète blanc de neige – Skeletocutis nivea[1]
-Tramète bossue – Trametes gibbosa[1]
-Tramète brûlée – Bjerkandera adusta[1]
-Tramète cinabre – Pycnoporus cinnabarinus[1]
-Tramète couleur de cerf – Trametopsis cervina[2]
-Tramète coupelle – Trametes conchifer[2]
-Tramète de Gaule – Coriolopsis gallica[2]
-Tramète de Trog – Coriolopsis trogii[2]
-Tramète déchirée – Trichaptum hollii[1]
-Tramète des gaules – Coriolopsis gallica[1]
-Tramète du bouleau – Trametes betulina[2]
-Tramète du chene-liège – Trichaptum biforme[1]
-Tramète du mélèze – Trichaptum laricinum[1]
-Tramète du peuplier – Funalia trogii[1]
-Tramète en bouclier – Datroniella scutellata[2]
-Tramète enfumée – Bjerkandera fumosa[1]
-Tramète faux-stereum – Cerioporus stereoides[2]
-Tramète gibbeuse – Trametes gibbosa[2]
-Tramète hirsute – Trametes hirsuta[1]
-Tramète lilas – Trichaptum abietinum[1]
-Tramète molle – Cerioporus mollis[2]
-Tramète ochracée – Trametes ochracea[2]
-Tramète parfumée – Trametes suaveolens[1]
-Tramète pubescente – Trametes pubescens[1]
-Tramète rougissante – Daedaleopsis confragosa[1]
-Tramète saumonée – Skeletocutis amorpha[1]
-Tramète unicolore – Cerrena unicolor[2]
-Tramète veloutée – Trametes velutina[1]
-Tramète versicolore – Trametes versicolor[1]
-Tramète zonée – Trametes multicolor[1]
+Tramète à ligne noire – Cerrena unicolor
+Tramète à odeur d'abricot – Datronia mollis
+Tramète bicolore – Gloeoporus dichrous
+Tramète blanc de neige – Skeletocutis nivea
+Tramète bossue – Trametes gibbosa
+Tramète brûlée – Bjerkandera adusta
+Tramète cinabre – Pycnoporus cinnabarinus
+Tramète couleur de cerf – Trametopsis cervina
+Tramète coupelle – Trametes conchifer
+Tramète de Gaule – Coriolopsis gallica
+Tramète de Trog – Coriolopsis trogii
+Tramète déchirée – Trichaptum hollii
+Tramète des gaules – Coriolopsis gallica
+Tramète du bouleau – Trametes betulina
+Tramète du chene-liège – Trichaptum biforme
+Tramète du mélèze – Trichaptum laricinum
+Tramète du peuplier – Funalia trogii
+Tramète en bouclier – Datroniella scutellata
+Tramète enfumée – Bjerkandera fumosa
+Tramète faux-stereum – Cerioporus stereoides
+Tramète gibbeuse – Trametes gibbosa
+Tramète hirsute – Trametes hirsuta
+Tramète lilas – Trichaptum abietinum
+Tramète molle – Cerioporus mollis
+Tramète ochracée – Trametes ochracea
+Tramète parfumée – Trametes suaveolens
+Tramète pubescente – Trametes pubescens
+Tramète rougissante – Daedaleopsis confragosa
+Tramète saumonée – Skeletocutis amorpha
+Tramète unicolore – Cerrena unicolor
+Tramète veloutée – Trametes velutina
+Tramète versicolore – Trametes versicolor
+Tramète zonée – Trametes multicolor
 </t>
         </is>
       </c>
